--- a/order_book/runtime_optimisation_record_book.xlsx
+++ b/order_book/runtime_optimisation_record_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My works\Miscelleneous\Quant-finance\order_book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F13D0E7-4F7F-45FA-8170-17B6B1930E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{B1398073-89A6-4803-B25D-1C72EE464E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6900" yWindow="2676" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>version 1.0</t>
   </si>
@@ -57,12 +57,6 @@
     <t>No. of orders</t>
   </si>
   <si>
-    <t>using maps for bids and asks</t>
-  </si>
-  <si>
-    <t>using unordered_maps for bids and asks</t>
-  </si>
-  <si>
     <t>Commentry</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>using parallel processing and maps to take as many orders as possible together on simulateTrading and then print the status of order book only once in the end, to avoid race conditions</t>
   </si>
   <si>
-    <t>using parallel processing ans unordered_maps to take as many orders as possible together on simulateTrading and then print the status of order book only once in the end, to avoid race conditions</t>
-  </si>
-  <si>
     <t>version 2.1</t>
   </si>
   <si>
@@ -172,6 +163,15 @@
   </si>
   <si>
     <t>using classes for bids and asks and encapsulating add-order, remove-order and get-order-book with it.</t>
+  </si>
+  <si>
+    <t>using maps for bids and asks, just using functional programming</t>
+  </si>
+  <si>
+    <t>using unordered_maps for bids and asks, just using functional programming</t>
+  </si>
+  <si>
+    <t>Using parallel processing and unordered_maps to take as many orders as possible together on simulateTrading and then print the status of order book only once in the end, to avoid race conditions</t>
   </si>
 </sst>
 </file>
@@ -624,7 +624,7 @@
   <dimension ref="B3:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -637,12 +637,15 @@
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -654,15 +657,15 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -678,15 +681,15 @@
         <v>61.274000000000001</v>
       </c>
       <c r="K6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>3</v>
@@ -702,18 +705,18 @@
         <v>45.731000000000002</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5">
         <v>10000</v>
@@ -726,18 +729,18 @@
         <v>6.8730000000000002</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5">
         <v>10000</v>
@@ -750,18 +753,18 @@
         <v>7.2709999999999999</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="5">
         <v>10000</v>
@@ -774,18 +777,18 @@
         <v>6.5540000000000003</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5">
         <v>10000</v>
@@ -798,10 +801,10 @@
         <v>6.3520000000000003</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -810,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -822,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
@@ -834,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -846,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -858,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="6:15" x14ac:dyDescent="0.25">
@@ -870,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="6:15" x14ac:dyDescent="0.25">
@@ -882,18 +885,18 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="6:15" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/order_book/runtime_optimisation_record_book.xlsx
+++ b/order_book/runtime_optimisation_record_book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My works\Miscelleneous\Quant-finance\order_book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{B1398073-89A6-4803-B25D-1C72EE464E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CBE01B-DB13-4932-9968-7139F38AACF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="2676" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>version 1.0</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>Using parallel processing and unordered_maps to take as many orders as possible together on simulateTrading and then print the status of order book only once in the end, to avoid race conditions</t>
+  </si>
+  <si>
+    <t>version 4.0</t>
+  </si>
+  <si>
+    <t>Using mutex to avoid race condition and modularized code into different .cpp and .h files</t>
   </si>
 </sst>
 </file>
@@ -297,7 +303,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,7 +320,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Heading 1" xfId="4" builtinId="16" customBuiltin="1"/>
@@ -624,7 +629,7 @@
   <dimension ref="B3:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -667,7 +672,7 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="5">
@@ -691,7 +696,7 @@
       <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="5">
@@ -807,10 +812,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E12">
+        <v>9017</v>
+      </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="F12" si="1">E12/1000</f>
+        <v>9.0169999999999995</v>
       </c>
       <c r="K12" t="s">
         <v>13</v>
@@ -906,21 +923,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[{"colorTheme":"{{DataSources.ColorThemes[\"Arup\"].ColorTheme}}","disableUpdates":false,"type":"colorTheme"}],"templateName":"Arup Blank","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E59C169C-5B71-4139-B067-6BD7D31FA149}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62CB8C1F-D40D-4C86-BB4B-0CF96D922D6C}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62CB8C1F-D40D-4C86-BB4B-0CF96D922D6C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E59C169C-5B71-4139-B067-6BD7D31FA149}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/order_book/runtime_optimisation_record_book.xlsx
+++ b/order_book/runtime_optimisation_record_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My works\Miscelleneous\Quant-finance\order_book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CBE01B-DB13-4932-9968-7139F38AACF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94087052-2645-4D26-8768-BADDC679CA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,7 +177,7 @@
     <t>version 4.0</t>
   </si>
   <si>
-    <t>Using mutex to avoid race condition and modularized code into different .cpp and .h files</t>
+    <t>Using mutex with parallel threading to avoid race condition and modularized code into different .cpp and .h files</t>
   </si>
 </sst>
 </file>
@@ -629,7 +629,7 @@
   <dimension ref="B3:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -812,7 +812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -823,11 +823,11 @@
         <v>10000</v>
       </c>
       <c r="E12">
-        <v>9017</v>
+        <v>8235</v>
       </c>
       <c r="F12">
         <f t="shared" ref="F12" si="1">E12/1000</f>
-        <v>9.0169999999999995</v>
+        <v>8.2349999999999994</v>
       </c>
       <c r="K12" t="s">
         <v>13</v>
